--- a/console/Elastic-Compute/Virtual-Machine/computeXlsx/adjustInstanceType.xlsx
+++ b/console/Elastic-Compute/Virtual-Machine/computeXlsx/adjustInstanceType.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\8月分配\SN205-LF0028-180821-console_Output-译文-ZZH处理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZYYT\Desktop\京东云\_JDC反馈\云主机反馈\Virtual-Machine-En_Output-updated 0830\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="133">
   <si>
     <t>adjust_config</t>
   </si>
@@ -30,9 +30,6 @@
     <t>selected_specification</t>
   </si>
   <si>
-    <t>Current selected type</t>
-  </si>
-  <si>
     <t>core</t>
   </si>
   <si>
@@ -42,36 +39,21 @@
     <t>adjust_tips_one</t>
   </si>
   <si>
-    <t>Select different instance types according to specific business situations</t>
-  </si>
-  <si>
     <t>adjust_tips_two</t>
   </si>
   <si>
-    <t>specifications type details</t>
-  </si>
-  <si>
     <t>adjust_tips_three</t>
   </si>
   <si>
-    <t>can be referred to</t>
-  </si>
-  <si>
     <t>adjust_tips_four</t>
   </si>
   <si>
-    <t>After the configuration modification, the virtual machine shall be started on the console before taking effect The virtual machine used as system disk in local disk and the virtual machine in the availability group</t>
-  </si>
-  <si>
     <t>adjust_tips_five</t>
   </si>
   <si>
     <t>adjust_tips_six</t>
   </si>
   <si>
-    <t>It is not allowed resize between the types of new and old generations, for example, it is not allowed to resize between g.n1 and g.n2.</t>
-  </si>
-  <si>
     <t>go_detail</t>
   </si>
   <si>
@@ -288,9 +270,6 @@
     <t>start_adjust_config</t>
   </si>
   <si>
-    <t>'Begin to resize'</t>
-  </si>
-  <si>
     <t>vm_adjust_config</t>
   </si>
   <si>
@@ -300,9 +279,6 @@
     <t>adjust_config_success</t>
   </si>
   <si>
-    <t>'Resize successful</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -332,50 +308,6 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>根据具体业务情况选择不同</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>实例规格类型，可参考</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>规格类型详情</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>配置修改完成后，需在控制台启动云主机才能生效。本地盘做系统盘的云主机以及高可用组内云主机</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
       <t>查看详情</t>
     </r>
   </si>
@@ -694,7 +626,7 @@
         <rFont val="宋体"/>
         <family val="2"/>
       </rPr>
-      <t>年</t>
+      <t>例如</t>
     </r>
     <r>
       <rPr>
@@ -703,7 +635,219 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>g.s1.micro</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>仅停止状态的云主机支持调整配置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>所选配置与当前配置相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>核</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云主机</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>全部</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>共享型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>标准型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>计算中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>...';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始获取云主机价格</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'/</t>
     </r>
     <r>
       <rPr>
@@ -721,16 +865,21 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>日前创建云硬盘做系统盘的云主机</t>
+      <t>';</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>开始调整配置</t>
     </r>
     <r>
       <rPr>
@@ -744,16 +893,16 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Create cloud disk as the virtual machine of system disk prior to January 1, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>　　　</t>
+      <t>'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+      </rPr>
+      <t>云主机调整配置</t>
     </r>
     <r>
       <rPr>
@@ -766,347 +915,24 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>不允许在新一代规格与旧一代规格间调配，如不允许</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>g.n1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>与</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>g.n2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>之间互相调配。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>例如</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>g.s1.micro</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>仅停止状态的云主机支持调整配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>所选配置与当前配置相同</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>核</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> '</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>云主机</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>全部</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>共享型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>标准型</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>计算中</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>...';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>开始获取云主机价格</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>';</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>开始调整配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-      </rPr>
-      <t>云主机调整配置</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>'</t>
-    </r>
+    <t>Current selected specification</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据具体业务情况选择不同 xxx 实例规格类型，可参考规格类型详情，配置修改完成后，需在控制台启动云主机才能生效。本地盘做系统盘的云主机以及高可用组内云主机 (17年1月1日前创建云硬盘做系统盘的云主机) 不允许在新一代规格与旧一代规格间调配，如不允许g.n1与g.n2之间互相调配。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Begin resizing'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resizing successful</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please select xxx different instance types according to specific business, please refer to  Instance Type. In case there is any configuration modification, it will take effect only after starting the VM of the console. For a VM (whose system disk is cloud disk created prior to January 1, 2017) which system disk is local disk and a VM that is in AG, such modification is not allowed between the types of new and old generations, for example, it is not allowed to resize between g.n1 and g.n2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1161,9 +987,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1505,15 +1343,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="36.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="98.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="238" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="44.375" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1521,10 +1359,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1532,524 +1370,508 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="75.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>5</v>
+        <v>65</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>81</v>
+        <v>74</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>83</v>
+        <v>76</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>89</v>
+        <v>82</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C4:C9"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="C1:C48 A1:A48" numberStoredAsText="1"/>
+    <ignoredError sqref="C1 A1:A48 C10:C45 C3 C47" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>